--- a/client/原稿/102918959.xlsx
+++ b/client/原稿/102918959.xlsx
@@ -412,7 +412,7 @@
         <v>大粒種子定方向播種装置</v>
       </c>
       <c r="M1" t="str">
-        <v>大粒種子の配向播種装置_x000d_</v>
+        <v>大粒種子の配向播種装置</v>
       </c>
     </row>
     <row r="2">
@@ -453,7 +453,7 @@
         <v>大粒種子指向性播種装置は、ステージと、搬送機構と、苗盤、ツボ押し機構、撮像検出機構、吸着機構、種箱、案内板、ステアリング機構、矯正機構及び制御ボックスは、ステージフレームとテーブル面を示す図である；搬送機構、プレス穴機構、撮像検出機構、吸着機構、方向調整機構、矯正機構は、制御ボックス内の制御システムに接続されている；撮像検出機構制御ボックス内の制御システムに外接する、内部に画像処理ソフトウェアのコンピュータを内蔵している。本装置は、センサ作動過程について正確な検出フィードバック、搬送速度ステッピングモータＦＭによって実現してツボ押しシリンダ、矯正気筒往復運動と集気管吸針動き接続二重一方向絞り弁を用いて調速を行う、播種後発芽点一致指向性播種に向けられている。</v>
       </c>
       <c r="M2" t="str">
-        <v>大粒種子の配向播種装置は，作業台、搬送機構、育苗用トレイ、穴押し機構、撮像検出手段、種子吸入機構、種の箱、ガイド板、方向調節機構、矯正機構及び制御箱を含み，作業台はフレームと作業台面を含む；搬送機構、穴押し機構、撮像検出手段、種子吸入機構、方向調節機構、矯正機構は、制御箱内の制御システムに接続されている；撮像検出機構は、制御箱内の制御システムに外部接続され、内部には画像処理ソフトウェアのコンピュータが取り付けられている。本装置のセンサは、作業過程を正確に検出してフィードバックし，搬送速度はステッピングモータの周波数変調により実現し，穴押しシリンダ、矯正シリンダの往復移動と集気管の吸着カートリッジとの接続移動は、双方向スロットル弁と単方向スロットル弁を用いて速度を調整し，播種後、発芽点の方向が一致した配向播種を実現する。_x000d_</v>
+        <v>大粒種子の配向播種装置は，作業台、搬送機構、育苗用トレイ、穴押し機構、撮像検出手段、種子吸入機構、種の箱、ガイド板、方向調節機構、矯正機構及び制御箱を含み，作業台はフレームと作業台面を含む；搬送機構、穴押し機構、撮像検出手段、種子吸入機構、方向調節機構、矯正機構は、制御箱内の制御システムに接続されている；撮像検出機構は、制御箱内の制御システムに外部接続され、内部には画像処理ソフトウェアのコンピュータが取り付けられている。本装置のセンサは、作業過程を正確に検出してフィードバックし，搬送速度はステッピングモータの周波数変調により実現し，穴押しシリンダ、矯正シリンダの往復移動と集気管の吸着カートリッジとの接続移動は、双方向スロットル弁と単方向スロットル弁を用いて速度を調整し，播種後、発芽点の方向が一致した配向播種を実現する。</v>
       </c>
     </row>
     <row r="3">
@@ -1027,7 +1027,7 @@
         <v>技術分野</v>
       </c>
       <c r="M16" t="str">
-        <v>技術分野_x000d_</v>
+        <v>技術分野</v>
       </c>
     </row>
     <row r="17">
@@ -1109,7 +1109,7 @@
         <v>背景技術</v>
       </c>
       <c r="M18" t="str">
-        <v>背景技術_x000d_</v>
+        <v>背景技術</v>
       </c>
     </row>
     <row r="19">
@@ -1560,7 +1560,7 @@
         <v>発明内容</v>
       </c>
       <c r="M29" t="str">
-        <v>発明の概要_x000d_</v>
+        <v>発明の概要</v>
       </c>
     </row>
     <row r="30">
@@ -2339,7 +2339,7 @@
         <v>，図面の簡単な説明</v>
       </c>
       <c r="M48" t="str">
-        <v>図面の簡単な説明_x000d_</v>
+        <v>図面の簡単な説明</v>
       </c>
     </row>
     <row r="49">
@@ -2626,7 +2626,7 @@
         <v>具体実施形態</v>
       </c>
       <c r="M55" t="str">
-        <v>発明を実施するための形態_x000d_</v>
+        <v>発明を実施するための形態</v>
       </c>
     </row>
     <row r="56">
